--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W15_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4832826747720365</v>
+        <v>0.4893617021276596</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.2345129202127416</v>
+        <v>0.1906201122881408</v>
       </c>
       <c r="J2" t="n">
-        <v>3075.413745643227</v>
+        <v>2419.181497989771</v>
       </c>
       <c r="K2" t="n">
-        <v>11725528.66470817</v>
+        <v>6591370.877927536</v>
       </c>
       <c r="L2" t="n">
-        <v>3424.255928622767</v>
+        <v>2567.366525825157</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.20465611777982</v>
+        <v>-0.2393220421964108</v>
       </c>
     </row>
   </sheetData>
